--- a/Excel-Documents/WBManifestTable_1706103354202.xlsx
+++ b/Excel-Documents/WBManifestTable_1706103354202.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="21748" windowHeight="11601" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-4910" yWindow="-10910" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="FedEx Air Ops Workbench Report" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FedEx Air Ops Workbench Report'!$A$4:$N$4</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1" refMode="R1C1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -67,7 +67,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -126,26 +126,6 @@
       <top style="medium">
         <color indexed="41"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="41"/>
-      </right>
-      <top style="medium">
-        <color indexed="41"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="41"/>
-      </top>
       <bottom style="medium">
         <color indexed="41"/>
       </bottom>
@@ -162,26 +142,6 @@
       <bottom style="medium">
         <color indexed="41"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="54"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="54"/>
-      </right>
-      <top style="medium">
-        <color indexed="54"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -208,6 +168,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="41"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="41"/>
+      </right>
+      <top style="medium">
+        <color indexed="41"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="54"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="54"/>
+      </right>
+      <top style="medium">
+        <color indexed="54"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -226,14 +241,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,151 +565,151 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="4.625" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="3.5" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="7.5" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="7.25" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
-    <col width="3.25" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
-    <col width="40.125" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
-    <col width="41.125" bestFit="1" customWidth="1" style="5" min="8" max="8"/>
-    <col width="51.375" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
-    <col width="22" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
-    <col width="14.25" bestFit="1" customWidth="1" style="5" min="11" max="11"/>
-    <col width="4.875" bestFit="1" customWidth="1" style="5" min="12" max="12"/>
-    <col width="3.625" bestFit="1" customWidth="1" style="5" min="13" max="13"/>
-    <col width="6.375" bestFit="1" customWidth="1" style="5" min="14" max="14"/>
+    <col width="4.6328125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="12.7265625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="3.453125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="7.453125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="7.26953125" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="3.26953125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="40.08984375" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="41.08984375" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="51.36328125" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="22" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="14.26953125" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="4.90625" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="3.6328125" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="6.36328125" bestFit="1" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50" customHeight="1" s="5">
+    <row r="1" ht="50" customHeight="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
           <t>FedEx Air Ops Workbench Report</t>
         </is>
       </c>
-      <c r="B1" s="7" t="n"/>
-      <c r="C1" s="7" t="n"/>
-      <c r="D1" s="7" t="n"/>
-      <c r="E1" s="7" t="n"/>
-      <c r="F1" s="7" t="n"/>
-      <c r="G1" s="7" t="n"/>
-      <c r="H1" s="7" t="n"/>
-      <c r="I1" s="7" t="n"/>
-      <c r="J1" s="7" t="n"/>
-      <c r="K1" s="7" t="n"/>
-      <c r="L1" s="7" t="n"/>
-      <c r="M1" s="7" t="n"/>
-      <c r="N1" s="8" t="n"/>
+      <c r="B1" s="5" t="n"/>
+      <c r="C1" s="5" t="n"/>
+      <c r="D1" s="5" t="n"/>
+      <c r="E1" s="5" t="n"/>
+      <c r="F1" s="5" t="n"/>
+      <c r="G1" s="5" t="n"/>
+      <c r="H1" s="5" t="n"/>
+      <c r="I1" s="5" t="n"/>
+      <c r="J1" s="5" t="n"/>
+      <c r="K1" s="5" t="n"/>
+      <c r="L1" s="5" t="n"/>
+      <c r="M1" s="5" t="n"/>
+      <c r="N1" s="6" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" s="7" t="inlineStr">
         <is>
           <t>Requested by: Wessel, Nicole(5287297) On 24Jan2024 08:35:54</t>
         </is>
       </c>
-      <c r="B2" s="9" t="n"/>
-      <c r="C2" s="9" t="n"/>
-      <c r="D2" s="9" t="n"/>
-      <c r="E2" s="9" t="n"/>
-      <c r="F2" s="9" t="n"/>
-      <c r="G2" s="9" t="n"/>
-      <c r="H2" s="9" t="n"/>
-      <c r="I2" s="9" t="n"/>
-      <c r="J2" s="9" t="n"/>
-      <c r="K2" s="9" t="n"/>
-      <c r="L2" s="9" t="n"/>
-      <c r="M2" s="9" t="n"/>
-      <c r="N2" s="10" t="n"/>
+      <c r="B2" s="8" t="n"/>
+      <c r="C2" s="8" t="n"/>
+      <c r="D2" s="8" t="n"/>
+      <c r="E2" s="8" t="n"/>
+      <c r="F2" s="8" t="n"/>
+      <c r="G2" s="8" t="n"/>
+      <c r="H2" s="8" t="n"/>
+      <c r="I2" s="8" t="n"/>
+      <c r="J2" s="8" t="n"/>
+      <c r="K2" s="8" t="n"/>
+      <c r="L2" s="8" t="n"/>
+      <c r="M2" s="8" t="n"/>
+      <c r="N2" s="9" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>1460-20,LEG 1,N733FD,0055,MEM-CVG,PRA#80263,VSL:305306495876</t>
         </is>
       </c>
-      <c r="B3" s="9" t="n"/>
-      <c r="C3" s="9" t="n"/>
-      <c r="D3" s="9" t="n"/>
-      <c r="E3" s="9" t="n"/>
-      <c r="F3" s="9" t="n"/>
-      <c r="G3" s="9" t="n"/>
-      <c r="H3" s="9" t="n"/>
-      <c r="I3" s="9" t="n"/>
-      <c r="J3" s="9" t="n"/>
-      <c r="K3" s="9" t="n"/>
-      <c r="L3" s="9" t="n"/>
-      <c r="M3" s="9" t="n"/>
-      <c r="N3" s="10" t="n"/>
-    </row>
-    <row r="4" ht="40.05" customHeight="1" s="5">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="B3" s="8" t="n"/>
+      <c r="C3" s="8" t="n"/>
+      <c r="D3" s="8" t="n"/>
+      <c r="E3" s="8" t="n"/>
+      <c r="F3" s="8" t="n"/>
+      <c r="G3" s="8" t="n"/>
+      <c r="H3" s="8" t="n"/>
+      <c r="I3" s="8" t="n"/>
+      <c r="J3" s="8" t="n"/>
+      <c r="K3" s="8" t="n"/>
+      <c r="L3" s="8" t="n"/>
+      <c r="M3" s="8" t="n"/>
+      <c r="N3" s="9" t="n"/>
+    </row>
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>Pos</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="7" t="inlineStr">
         <is>
           <t>ULD</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="7" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
+      <c r="D4" s="7" t="inlineStr">
         <is>
           <t>Weight</t>
         </is>
       </c>
-      <c r="E4" s="6" t="inlineStr">
+      <c r="E4" s="7" t="inlineStr">
         <is>
           <t>Dest</t>
         </is>
       </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="F4" s="7" t="inlineStr">
         <is>
           <t>CB</t>
         </is>
       </c>
-      <c r="G4" s="6" t="inlineStr">
+      <c r="G4" s="7" t="inlineStr">
         <is>
           <t>Service CD</t>
         </is>
       </c>
-      <c r="H4" s="6" t="inlineStr">
+      <c r="H4" s="7" t="inlineStr">
         <is>
           <t>Load CD</t>
         </is>
       </c>
-      <c r="I4" s="6" t="inlineStr">
+      <c r="I4" s="7" t="inlineStr">
         <is>
           <t>Pkg Dests</t>
         </is>
       </c>
-      <c r="J4" s="6" t="inlineStr">
+      <c r="J4" s="7" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
       </c>
-      <c r="K4" s="6" t="inlineStr">
+      <c r="K4" s="7" t="inlineStr">
         <is>
           <t>CONS#</t>
         </is>
       </c>
-      <c r="L4" s="6" t="inlineStr">
+      <c r="L4" s="7" t="inlineStr">
         <is>
           <t>Hgt</t>
         </is>
       </c>
-      <c r="M4" s="6" t="inlineStr">
+      <c r="M4" s="7" t="inlineStr">
         <is>
           <t>Src</t>
         </is>
       </c>
-      <c r="N4" s="6" t="inlineStr">
+      <c r="N4" s="7" t="inlineStr">
         <is>
           <t>Route</t>
         </is>
@@ -746,7 +761,7 @@
           <t>CVGA,LUKA,REFA</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr"/>
+      <c r="J5" s="2" t="n"/>
       <c r="K5" s="2" t="inlineStr">
         <is>
           <t>304960708390</t>
@@ -762,7 +777,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="N5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -810,7 +825,7 @@
           <t>CVGUP</t>
         </is>
       </c>
-      <c r="J6" s="3" t="inlineStr"/>
+      <c r="J6" s="3" t="n"/>
       <c r="K6" s="3" t="inlineStr">
         <is>
           <t>304961572139</t>
@@ -826,7 +841,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N6" s="3" t="inlineStr"/>
+      <c r="N6" s="3" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -874,7 +889,7 @@
           <t>CVGA,CVGRT,CVGUP,FFTA,LUKA,OXDA,PDJA,REFA</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr"/>
+      <c r="J7" s="2" t="n"/>
       <c r="K7" s="2" t="inlineStr">
         <is>
           <t>304962047900</t>
@@ -890,7 +905,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="N7" s="2" t="inlineStr"/>
+      <c r="N7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
@@ -938,7 +953,7 @@
           <t>FFTA,OXDA,CVGA,CVGRT,LUKA,PDJA,DNCA,CVGUP,REFA</t>
         </is>
       </c>
-      <c r="J8" s="3" t="inlineStr"/>
+      <c r="J8" s="3" t="n"/>
       <c r="K8" s="3" t="inlineStr">
         <is>
           <t>304962047748</t>
@@ -954,7 +969,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="N8" s="3" t="inlineStr"/>
+      <c r="N8" s="3" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -1002,7 +1017,7 @@
           <t>CVGA,OXDA,FFTA,LUKA</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="n"/>
       <c r="K9" s="2" t="inlineStr">
         <is>
           <t>304962047895</t>
@@ -1018,7 +1033,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
@@ -1066,7 +1081,7 @@
           <t>CVGRT</t>
         </is>
       </c>
-      <c r="J10" s="3" t="inlineStr"/>
+      <c r="J10" s="3" t="n"/>
       <c r="K10" s="3" t="inlineStr">
         <is>
           <t>304962047759</t>
@@ -1082,7 +1097,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N10" s="3" t="inlineStr"/>
+      <c r="N10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1130,7 +1145,7 @@
           <t>CVGRT,REFA,CVGUP,CVGA,OXDA,FFTA,PDJA,LUKA</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="n"/>
       <c r="K11" s="2" t="inlineStr">
         <is>
           <t>304962047862</t>
@@ -1146,7 +1161,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
@@ -1215,7 +1230,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N12" s="3" t="inlineStr"/>
+      <c r="N12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1263,7 +1278,7 @@
           <t>CVGA,OXDA,FFTA,LUKA,CVGRT</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="n"/>
       <c r="K13" s="2" t="inlineStr">
         <is>
           <t>304962047840</t>
@@ -1279,7 +1294,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
@@ -1327,7 +1342,7 @@
           <t>CVGA</t>
         </is>
       </c>
-      <c r="J14" s="3" t="inlineStr"/>
+      <c r="J14" s="3" t="n"/>
       <c r="K14" s="3" t="inlineStr">
         <is>
           <t>304962047807</t>
@@ -1343,7 +1358,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N14" s="3" t="inlineStr"/>
+      <c r="N14" s="3" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -1391,7 +1406,7 @@
           <t>REFA</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr"/>
+      <c r="J15" s="2" t="n"/>
       <c r="K15" s="2" t="inlineStr">
         <is>
           <t>304962047830</t>
@@ -1407,7 +1422,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="N15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
@@ -1455,7 +1470,7 @@
           <t>CVGA,FFTA,OXDA,LUKA</t>
         </is>
       </c>
-      <c r="J16" s="3" t="inlineStr"/>
+      <c r="J16" s="3" t="n"/>
       <c r="K16" s="3" t="inlineStr">
         <is>
           <t>304962047829</t>
@@ -1471,7 +1486,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N16" s="3" t="inlineStr"/>
+      <c r="N16" s="3" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1519,7 +1534,7 @@
           <t>CVGA,ZMDA,OXDA,FFTA,LUKA,DNCA,PDJA,REFA</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr"/>
+      <c r="J17" s="2" t="n"/>
       <c r="K17" s="2" t="inlineStr">
         <is>
           <t>304962047954</t>
@@ -1535,7 +1550,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
@@ -1583,7 +1598,7 @@
           <t>LUKA,FFTA,CVGA,OXDA,CVGRT,PDJA</t>
         </is>
       </c>
-      <c r="J18" s="3" t="inlineStr"/>
+      <c r="J18" s="3" t="n"/>
       <c r="K18" s="3" t="inlineStr">
         <is>
           <t>304962047921</t>
@@ -1599,7 +1614,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N18" s="3" t="inlineStr"/>
+      <c r="N18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1667,7 +1682,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
@@ -1735,7 +1750,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N20" s="3" t="inlineStr"/>
+      <c r="N20" s="3" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -1803,7 +1818,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N21" s="2" t="inlineStr"/>
+      <c r="N21" s="2" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
@@ -1872,7 +1887,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N22" s="3" t="inlineStr"/>
+      <c r="N22" s="3" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -1941,7 +1956,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N23" s="2" t="inlineStr"/>
+      <c r="N23" s="2" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
@@ -2010,7 +2025,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N24" s="3" t="inlineStr"/>
+      <c r="N24" s="3" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -2058,7 +2073,7 @@
           <t>PDJA</t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr"/>
+      <c r="J25" s="2" t="n"/>
       <c r="K25" s="2" t="inlineStr">
         <is>
           <t>304962047781</t>
@@ -2074,7 +2089,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="N25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
@@ -2122,7 +2137,7 @@
           <t>CVGA,OXDA,LUKA,FFTA</t>
         </is>
       </c>
-      <c r="J26" s="3" t="inlineStr"/>
+      <c r="J26" s="3" t="n"/>
       <c r="K26" s="3" t="inlineStr">
         <is>
           <t>304962047818</t>
@@ -2138,7 +2153,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N26" s="3" t="inlineStr"/>
+      <c r="N26" s="3" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -2186,7 +2201,7 @@
           <t>REFA</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="n"/>
       <c r="K27" s="2" t="inlineStr">
         <is>
           <t>304962525070</t>
@@ -2202,7 +2217,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="N27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
@@ -2270,7 +2285,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N28" s="3" t="inlineStr"/>
+      <c r="N28" s="3" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -2338,7 +2353,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N29" s="2" t="inlineStr"/>
+      <c r="N29" s="2" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
@@ -2386,7 +2401,7 @@
           <t>CVGUP</t>
         </is>
       </c>
-      <c r="J30" s="3" t="inlineStr"/>
+      <c r="J30" s="3" t="n"/>
       <c r="K30" s="3" t="inlineStr">
         <is>
           <t>304962221386</t>
@@ -2402,7 +2417,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N30" s="3" t="inlineStr"/>
+      <c r="N30" s="3" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -2450,7 +2465,7 @@
           <t>CVGUP</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr"/>
+      <c r="J31" s="2" t="n"/>
       <c r="K31" s="2" t="inlineStr">
         <is>
           <t>304962221375</t>
@@ -2466,7 +2481,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N31" s="2" t="inlineStr"/>
+      <c r="N31" s="2" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
@@ -2514,7 +2529,7 @@
           <t>OXDA</t>
         </is>
       </c>
-      <c r="J32" s="3" t="inlineStr"/>
+      <c r="J32" s="3" t="n"/>
       <c r="K32" s="3" t="inlineStr">
         <is>
           <t>304962525107</t>
@@ -2530,7 +2545,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N32" s="3" t="inlineStr"/>
+      <c r="N32" s="3" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -2568,13 +2583,13 @@
           <t>SDR,PO1,ES1,DOC</t>
         </is>
       </c>
-      <c r="H33" s="2" t="inlineStr"/>
+      <c r="H33" s="2" t="n"/>
       <c r="I33" s="2" t="inlineStr">
         <is>
           <t>CVGA</t>
         </is>
       </c>
-      <c r="J33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="n"/>
       <c r="K33" s="2" t="inlineStr">
         <is>
           <t>304962525048</t>
@@ -2590,7 +2605,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
@@ -2638,7 +2653,7 @@
           <t>LUKA</t>
         </is>
       </c>
-      <c r="J34" s="3" t="inlineStr"/>
+      <c r="J34" s="3" t="n"/>
       <c r="K34" s="3" t="inlineStr">
         <is>
           <t>304962525092</t>
@@ -2654,7 +2669,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N34" s="3" t="inlineStr"/>
+      <c r="N34" s="3" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2702,7 +2717,7 @@
           <t>FFTA</t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="n"/>
       <c r="K35" s="2" t="inlineStr">
         <is>
           <t>304962525081</t>
@@ -2718,7 +2733,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
@@ -3054,7 +3069,7 @@
           <t>CVGA,OXDA,FFTA,LUKA</t>
         </is>
       </c>
-      <c r="J40" s="3" t="inlineStr"/>
+      <c r="J40" s="3" t="n"/>
       <c r="K40" s="3" t="inlineStr">
         <is>
           <t>304962047726</t>
@@ -3070,7 +3085,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N40" s="3" t="inlineStr"/>
+      <c r="N40" s="3" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -3118,7 +3133,7 @@
           <t>CVGA,OXDA,FFTA,LUKA</t>
         </is>
       </c>
-      <c r="J41" s="2" t="inlineStr"/>
+      <c r="J41" s="2" t="n"/>
       <c r="K41" s="2" t="inlineStr">
         <is>
           <t>304962525004</t>
@@ -3134,7 +3149,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N41" s="2" t="inlineStr"/>
+      <c r="N41" s="2" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
@@ -3182,7 +3197,7 @@
           <t>CVGA,OXDA,FFTA,LUKA</t>
         </is>
       </c>
-      <c r="J42" s="3" t="inlineStr"/>
+      <c r="J42" s="3" t="n"/>
       <c r="K42" s="3" t="inlineStr">
         <is>
           <t>304962047737</t>
@@ -3198,7 +3213,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N42" s="3" t="inlineStr"/>
+      <c r="N42" s="3" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -3246,7 +3261,7 @@
           <t>CVGA,OXDA,LUKA,FFTA</t>
         </is>
       </c>
-      <c r="J43" s="2" t="inlineStr"/>
+      <c r="J43" s="2" t="n"/>
       <c r="K43" s="2" t="inlineStr">
         <is>
           <t>304962525015</t>
@@ -3262,7 +3277,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N43" s="2" t="inlineStr"/>
+      <c r="N43" s="2" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
@@ -3310,7 +3325,7 @@
           <t>CVGA,OXDA,LUKA,FFTA</t>
         </is>
       </c>
-      <c r="J44" s="3" t="inlineStr"/>
+      <c r="J44" s="3" t="n"/>
       <c r="K44" s="3" t="inlineStr">
         <is>
           <t>304962047770</t>
@@ -3326,7 +3341,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N44" s="3" t="inlineStr"/>
+      <c r="N44" s="3" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -3374,7 +3389,7 @@
           <t>CVGA,OXDA,FFTA,LUKA</t>
         </is>
       </c>
-      <c r="J45" s="2" t="inlineStr"/>
+      <c r="J45" s="2" t="n"/>
       <c r="K45" s="2" t="inlineStr">
         <is>
           <t>304962047760</t>
@@ -3390,7 +3405,7 @@
           <t>S</t>
         </is>
       </c>
-      <c r="N45" s="2" t="inlineStr"/>
+      <c r="N45" s="2" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
@@ -3403,18 +3418,18 @@
           <t>VOID</t>
         </is>
       </c>
-      <c r="C46" s="3" t="inlineStr"/>
-      <c r="D46" s="3" t="inlineStr"/>
-      <c r="E46" s="3" t="inlineStr"/>
-      <c r="F46" s="3" t="inlineStr"/>
-      <c r="G46" s="3" t="inlineStr"/>
-      <c r="H46" s="3" t="inlineStr"/>
-      <c r="I46" s="3" t="inlineStr"/>
-      <c r="J46" s="3" t="inlineStr"/>
+      <c r="C46" s="3" t="n"/>
+      <c r="D46" s="3" t="n"/>
+      <c r="E46" s="3" t="n"/>
+      <c r="F46" s="3" t="n"/>
+      <c r="G46" s="3" t="n"/>
+      <c r="H46" s="3" t="n"/>
+      <c r="I46" s="3" t="n"/>
+      <c r="J46" s="3" t="n"/>
       <c r="K46" s="3" t="n"/>
-      <c r="L46" s="3" t="inlineStr"/>
+      <c r="L46" s="3" t="n"/>
       <c r="M46" s="3" t="n"/>
-      <c r="N46" s="3" t="inlineStr"/>
+      <c r="N46" s="3" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:N4"/>
@@ -3441,356 +3456,425 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="3" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="3" customWidth="1" min="8" max="8"/>
+    <col width="36" customWidth="1" min="9" max="9"/>
+    <col width="29" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>Flight 1460</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Schedule</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Actual</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t>Variance</t>
         </is>
       </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>Late aircraft</t>
+        </is>
+      </c>
+      <c r="H1" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I1" s="10" t="inlineStr">
+        <is>
+          <t>Excess Minisort</t>
+        </is>
+      </c>
+      <c r="K1" s="10" t="n"/>
+      <c r="L1" s="10" t="inlineStr">
+        <is>
+          <t>Schedule</t>
+        </is>
+      </c>
+      <c r="M1" s="10" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="N1" s="10" t="inlineStr">
+        <is>
+          <t>Variance</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="10" t="inlineStr">
         <is>
           <t>Aircraft Arrival</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>06:02</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="10" t="inlineStr">
         <is>
           <t>06:29</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="10" t="inlineStr">
         <is>
           <t>+27</t>
         </is>
       </c>
+      <c r="F2" s="10" t="n"/>
+      <c r="G2" s="10" t="n"/>
+      <c r="H2" s="10" t="n"/>
+      <c r="I2" s="10" t="n"/>
+      <c r="K2" s="10" t="inlineStr">
+        <is>
+          <t>OXD02</t>
+        </is>
+      </c>
+      <c r="L2" s="10" t="inlineStr">
+        <is>
+          <t>06:35</t>
+        </is>
+      </c>
+      <c r="M2" s="10" t="inlineStr">
+        <is>
+          <t>07:05</t>
+        </is>
+      </c>
+      <c r="N2" s="10" t="inlineStr">
+        <is>
+          <t>+30</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="10" t="inlineStr">
         <is>
           <t>Sort Time</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="10" t="inlineStr">
         <is>
           <t>06:26</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="10" t="inlineStr">
         <is>
           <t>06:43</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="10" t="inlineStr">
         <is>
           <t>+17</t>
         </is>
       </c>
+      <c r="F3" s="10" t="n"/>
+      <c r="G3" s="10" t="n"/>
+      <c r="H3" s="10" t="n"/>
+      <c r="I3" s="10" t="inlineStr">
+        <is>
+          <t>Plan = 6650lbs</t>
+        </is>
+      </c>
+      <c r="K3" s="10" t="inlineStr">
+        <is>
+          <t>CVG10</t>
+        </is>
+      </c>
+      <c r="L3" s="10" t="inlineStr">
+        <is>
+          <t>07:25</t>
+        </is>
+      </c>
+      <c r="M3" s="10" t="inlineStr">
+        <is>
+          <t>07:25</t>
+        </is>
+      </c>
+      <c r="N3" s="10" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="10" t="inlineStr">
         <is>
           <t>Sort End</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>06:46</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="10" t="inlineStr">
         <is>
           <t>07:10</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="10" t="inlineStr">
         <is>
           <t>+24</t>
         </is>
       </c>
+      <c r="F4" s="10" t="n"/>
+      <c r="G4" s="10" t="n"/>
+      <c r="H4" s="10" t="n"/>
+      <c r="I4" s="10" t="inlineStr">
+        <is>
+          <t>Actual = 10856</t>
+        </is>
+      </c>
+      <c r="K4" s="10" t="inlineStr">
+        <is>
+          <t>CVG03</t>
+        </is>
+      </c>
+      <c r="L4" s="10" t="inlineStr">
+        <is>
+          <t>06:45</t>
+        </is>
+      </c>
+      <c r="M4" s="10" t="inlineStr">
+        <is>
+          <t>07:05</t>
+        </is>
+      </c>
+      <c r="N4" s="10" t="inlineStr">
+        <is>
+          <t>+20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="F5" s="10" t="n"/>
+      <c r="G5" s="10" t="n"/>
+      <c r="H5" s="10" t="n"/>
+      <c r="I5" s="10" t="inlineStr">
+        <is>
+          <t>Plan = 655 pieces</t>
+        </is>
+      </c>
+      <c r="K5" s="10" t="inlineStr">
+        <is>
+          <t>FFT02</t>
+        </is>
+      </c>
+      <c r="L5" s="10" t="inlineStr">
+        <is>
+          <t>07:15</t>
+        </is>
+      </c>
+      <c r="M5" s="10" t="inlineStr">
+        <is>
+          <t>07:22</t>
+        </is>
+      </c>
+      <c r="N5" s="10" t="inlineStr">
+        <is>
+          <t>+7</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="F6" s="10" t="n"/>
+      <c r="G6" s="10" t="n"/>
+      <c r="H6" s="10" t="n"/>
+      <c r="I6" s="10" t="inlineStr">
+        <is>
+          <t>Actual = 924 116 of this was NCING</t>
+        </is>
+      </c>
+      <c r="K6" s="10" t="inlineStr">
+        <is>
+          <t>CVG06</t>
+        </is>
+      </c>
+      <c r="L6" s="10" t="inlineStr">
+        <is>
+          <t>06:55</t>
+        </is>
+      </c>
+      <c r="M6" s="10" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="N6" s="10" t="inlineStr">
+        <is>
+          <t>+5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="K7" s="10" t="inlineStr">
+        <is>
+          <t>OXD04</t>
+        </is>
+      </c>
+      <c r="L7" s="10" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="M7" s="10" t="inlineStr">
+        <is>
+          <t>07:22</t>
+        </is>
+      </c>
+      <c r="N7" s="10" t="inlineStr">
+        <is>
+          <t>+22</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="K8" s="10" t="inlineStr">
+        <is>
+          <t>LUK01</t>
+        </is>
+      </c>
+      <c r="L8" s="10" t="inlineStr">
+        <is>
+          <t>07:10</t>
+        </is>
+      </c>
+      <c r="M8" s="10" t="inlineStr">
+        <is>
+          <t>07:05</t>
+        </is>
+      </c>
+      <c r="N8" s="10" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="K9" s="10" t="inlineStr">
+        <is>
+          <t>CVG02</t>
+        </is>
+      </c>
+      <c r="L9" s="10" t="inlineStr">
+        <is>
+          <t>07:05</t>
+        </is>
+      </c>
+      <c r="M9" s="10" t="inlineStr">
+        <is>
+          <t>07:25</t>
+        </is>
+      </c>
+      <c r="N9" s="10" t="inlineStr">
+        <is>
+          <t>+20</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="K10" s="10" t="n"/>
+      <c r="L10" s="10" t="n"/>
+      <c r="M10" s="10" t="n"/>
+      <c r="N10" s="10" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Schedule</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Actual</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Variance</t>
+      <c r="K11" s="10" t="inlineStr">
+        <is>
+          <t>Docs LUK77/CVG77/OXD77FFT77</t>
+        </is>
+      </c>
+      <c r="L11" s="10" t="inlineStr">
+        <is>
+          <t>06:30</t>
+        </is>
+      </c>
+      <c r="M11" s="10" t="inlineStr">
+        <is>
+          <t>07:05</t>
+        </is>
+      </c>
+      <c r="N11" s="10" t="inlineStr">
+        <is>
+          <t>+35</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>OXD02</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>06:35</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>07:05</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>+30</t>
+      <c r="K12" s="10" t="inlineStr">
+        <is>
+          <t>CVG78 (DNCA)</t>
+        </is>
+      </c>
+      <c r="L12" s="10" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="M12" s="10" t="inlineStr">
+        <is>
+          <t>07:20</t>
+        </is>
+      </c>
+      <c r="N12" s="10" t="inlineStr">
+        <is>
+          <t>+20</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>CVG10</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>07:25</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>07:25</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>CVG03</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>06:45</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>07:05</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>FFT02</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>07:15</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>07:22</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>CVG06</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>06:55</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>OXD04</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>07:22</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>+22</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LUK01</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>07:10</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>07:05</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>CVG02</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>07:05</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>07:25</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Docs LUK77/CVG77/OXD77FFT77</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>06:30</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>07:05</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>+35</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>CVG78 (DNCA)</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
+      <c r="K13" s="10" t="inlineStr">
+        <is>
+          <t>FFT41 (PDJA)</t>
+        </is>
+      </c>
+      <c r="L13" s="10" t="inlineStr">
         <is>
           <t>07:20</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>FFT41 (PDJA)</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="M13" s="10" t="inlineStr">
         <is>
           <t>07:20</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>07:20</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
+      <c r="N13" s="10" t="inlineStr">
         <is>
           <t>+0</t>
         </is>

--- a/Excel-Documents/WBManifestTable_1706103354202.xlsx
+++ b/Excel-Documents/WBManifestTable_1706103354202.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-4910" yWindow="-10910" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3800" yWindow="3800" windowWidth="21600" windowHeight="12670" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="FedEx Air Ops Workbench Report" sheetId="1" state="visible" r:id="rId1"/>
@@ -565,7 +565,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col width="4.6328125" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="12.7265625" bestFit="1" customWidth="1" min="2" max="2"/>
@@ -3462,20 +3462,20 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="3" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="3" customWidth="1" min="8" max="8"/>
-    <col width="36" customWidth="1" min="9" max="9"/>
-    <col width="29" customWidth="1" min="11" max="11"/>
-    <col width="10" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
-    <col width="10" customWidth="1" min="14" max="14"/>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="2" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="2" customWidth="1" min="8" max="8"/>
+    <col width="35" customWidth="1" min="9" max="9"/>
+    <col width="28" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="9" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="C2" s="10" t="inlineStr">
         <is>
-          <t>06:29</t>
+          <t>06:46</t>
         </is>
       </c>
       <c r="D2" s="10" t="inlineStr">
         <is>
-          <t>+27</t>
+          <t>+44</t>
         </is>
       </c>
       <c r="F2" s="10" t="n"/>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="M2" s="10" t="inlineStr">
         <is>
-          <t>07:05</t>
+          <t>09:05</t>
         </is>
       </c>
       <c r="N2" s="10" t="inlineStr">
@@ -3595,12 +3595,12 @@
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>06:43</t>
+          <t>06:46</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>+17</t>
+          <t>+20</t>
         </is>
       </c>
       <c r="F3" s="10" t="n"/>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="M3" s="10" t="inlineStr">
         <is>
-          <t>07:25</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="N3" s="10" t="inlineStr">
@@ -3645,12 +3645,12 @@
       </c>
       <c r="C4" s="10" t="inlineStr">
         <is>
-          <t>07:10</t>
+          <t>06:46</t>
         </is>
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>+24</t>
+          <t>+0</t>
         </is>
       </c>
       <c r="F4" s="10" t="n"/>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="M4" s="10" t="inlineStr">
         <is>
-          <t>07:05</t>
+          <t>09:05</t>
         </is>
       </c>
       <c r="N4" s="10" t="inlineStr">

--- a/Excel-Documents/WBManifestTable_1706103354202.xlsx
+++ b/Excel-Documents/WBManifestTable_1706103354202.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3800" yWindow="3800" windowWidth="21600" windowHeight="12670" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="760" yWindow="760" windowWidth="21600" windowHeight="12670" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="FedEx Air Ops Workbench Report" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sort_times" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FedEx Air Ops Workbench Report" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sort_times" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FedEx Air Ops Workbench Report'!$A$4:$N$4</definedName>
@@ -172,6 +172,26 @@
       <left/>
       <right/>
       <top style="medium">
+        <color indexed="54"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="54"/>
+      </right>
+      <top style="medium">
+        <color indexed="54"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
         <color indexed="41"/>
       </top>
       <bottom/>
@@ -189,26 +209,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="54"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="54"/>
-      </right>
-      <top style="medium">
-        <color indexed="54"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="00000000"/>
       </left>
@@ -221,7 +221,6 @@
       <bottom style="medium">
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -238,22 +237,90 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -584,132 +651,132 @@
   </cols>
   <sheetData>
     <row r="1" ht="50" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>FedEx Air Ops Workbench Report</t>
         </is>
       </c>
-      <c r="B1" s="5" t="n"/>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="5" t="n"/>
-      <c r="E1" s="5" t="n"/>
-      <c r="F1" s="5" t="n"/>
-      <c r="G1" s="5" t="n"/>
-      <c r="H1" s="5" t="n"/>
-      <c r="I1" s="5" t="n"/>
-      <c r="J1" s="5" t="n"/>
-      <c r="K1" s="5" t="n"/>
-      <c r="L1" s="5" t="n"/>
-      <c r="M1" s="5" t="n"/>
-      <c r="N1" s="6" t="n"/>
+      <c r="B1" s="8" t="n"/>
+      <c r="C1" s="8" t="n"/>
+      <c r="D1" s="8" t="n"/>
+      <c r="E1" s="8" t="n"/>
+      <c r="F1" s="8" t="n"/>
+      <c r="G1" s="8" t="n"/>
+      <c r="H1" s="8" t="n"/>
+      <c r="I1" s="8" t="n"/>
+      <c r="J1" s="8" t="n"/>
+      <c r="K1" s="8" t="n"/>
+      <c r="L1" s="8" t="n"/>
+      <c r="M1" s="8" t="n"/>
+      <c r="N1" s="9" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>Requested by: Wessel, Nicole(5287297) On 24Jan2024 08:35:54</t>
         </is>
       </c>
-      <c r="B2" s="8" t="n"/>
-      <c r="C2" s="8" t="n"/>
-      <c r="D2" s="8" t="n"/>
-      <c r="E2" s="8" t="n"/>
-      <c r="F2" s="8" t="n"/>
-      <c r="G2" s="8" t="n"/>
-      <c r="H2" s="8" t="n"/>
-      <c r="I2" s="8" t="n"/>
-      <c r="J2" s="8" t="n"/>
-      <c r="K2" s="8" t="n"/>
-      <c r="L2" s="8" t="n"/>
-      <c r="M2" s="8" t="n"/>
-      <c r="N2" s="9" t="n"/>
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="5" t="n"/>
+      <c r="D2" s="5" t="n"/>
+      <c r="E2" s="5" t="n"/>
+      <c r="F2" s="5" t="n"/>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="5" t="n"/>
+      <c r="I2" s="5" t="n"/>
+      <c r="J2" s="5" t="n"/>
+      <c r="K2" s="5" t="n"/>
+      <c r="L2" s="5" t="n"/>
+      <c r="M2" s="5" t="n"/>
+      <c r="N2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>1460-20,LEG 1,N733FD,0055,MEM-CVG,PRA#80263,VSL:305306495876</t>
         </is>
       </c>
-      <c r="B3" s="8" t="n"/>
-      <c r="C3" s="8" t="n"/>
-      <c r="D3" s="8" t="n"/>
-      <c r="E3" s="8" t="n"/>
-      <c r="F3" s="8" t="n"/>
-      <c r="G3" s="8" t="n"/>
-      <c r="H3" s="8" t="n"/>
-      <c r="I3" s="8" t="n"/>
-      <c r="J3" s="8" t="n"/>
-      <c r="K3" s="8" t="n"/>
-      <c r="L3" s="8" t="n"/>
-      <c r="M3" s="8" t="n"/>
-      <c r="N3" s="9" t="n"/>
+      <c r="B3" s="5" t="n"/>
+      <c r="C3" s="5" t="n"/>
+      <c r="D3" s="5" t="n"/>
+      <c r="E3" s="5" t="n"/>
+      <c r="F3" s="5" t="n"/>
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="5" t="n"/>
+      <c r="I3" s="5" t="n"/>
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="5" t="n"/>
+      <c r="L3" s="5" t="n"/>
+      <c r="M3" s="5" t="n"/>
+      <c r="N3" s="6" t="n"/>
     </row>
     <row r="4" ht="40" customHeight="1">
-      <c r="A4" s="7" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>Pos</t>
         </is>
       </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>ULD</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>Weight</t>
         </is>
       </c>
-      <c r="E4" s="7" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>Dest</t>
         </is>
       </c>
-      <c r="F4" s="7" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>CB</t>
         </is>
       </c>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>Service CD</t>
         </is>
       </c>
-      <c r="H4" s="7" t="inlineStr">
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>Load CD</t>
         </is>
       </c>
-      <c r="I4" s="7" t="inlineStr">
+      <c r="I4" s="4" t="inlineStr">
         <is>
           <t>Pkg Dests</t>
         </is>
       </c>
-      <c r="J4" s="7" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
       </c>
-      <c r="K4" s="7" t="inlineStr">
+      <c r="K4" s="4" t="inlineStr">
         <is>
           <t>CONS#</t>
         </is>
       </c>
-      <c r="L4" s="7" t="inlineStr">
+      <c r="L4" s="4" t="inlineStr">
         <is>
           <t>Hgt</t>
         </is>
       </c>
-      <c r="M4" s="7" t="inlineStr">
+      <c r="M4" s="4" t="inlineStr">
         <is>
           <t>Src</t>
         </is>
       </c>
-      <c r="N4" s="7" t="inlineStr">
+      <c r="N4" s="4" t="inlineStr">
         <is>
           <t>Route</t>
         </is>
@@ -3434,9 +3501,9 @@
   </sheetData>
   <autoFilter ref="A4:N4"/>
   <mergeCells count="3">
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A2:N2"/>
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Excel-Documents/WBManifestTable_1706103354202.xlsx
+++ b/Excel-Documents/WBManifestTable_1706103354202.xlsx
@@ -3645,7 +3645,7 @@
       </c>
       <c r="N2" s="10" t="inlineStr">
         <is>
-          <t>+30</t>
+          <t>+150</t>
         </is>
       </c>
     </row>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="N3" s="10" t="inlineStr">
         <is>
-          <t>+0</t>
+          <t>+120</t>
         </is>
       </c>
     </row>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="N4" s="10" t="inlineStr">
         <is>
-          <t>+20</t>
+          <t>+140</t>
         </is>
       </c>
     </row>
